--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/94.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/94.xlsx
@@ -479,13 +479,13 @@
         <v>-0.03895777561567081</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.91978378753665</v>
+        <v>-1.918722898648893</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05016016848820989</v>
+        <v>0.05248656874949231</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01667133766341646</v>
+        <v>0.01907643888076391</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.04543810099943318</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.779930614589962</v>
+        <v>-1.776871508427714</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000630508798241151</v>
+        <v>0.003067090398014616</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01860423314437371</v>
+        <v>0.02095109565423303</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.06067894911617019</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.748190519008934</v>
+        <v>-1.744009924222759</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04494206682077766</v>
+        <v>-0.0432074977491043</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01480612500467515</v>
+        <v>0.0172285404323569</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.08099461581337503</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.771186938371137</v>
+        <v>-1.76642238249096</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08148764277913703</v>
+        <v>-0.08009148781854332</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03950563305612554</v>
+        <v>0.04236719981865019</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1009953208487985</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.738835336361483</v>
+        <v>-1.734690157005538</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1420716387580005</v>
+        <v>-0.1413003693885632</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04694129938514999</v>
+        <v>0.05046395417862093</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1146014089487586</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.595281644460618</v>
+        <v>-1.59051630157088</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2015050267591932</v>
+        <v>-0.2025312872262812</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0414810270533579</v>
+        <v>0.04449842170889132</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1184682330760915</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.456362651862422</v>
+        <v>-1.452303256548588</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3006005485789206</v>
+        <v>-0.3035266501254186</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06926246454431505</v>
+        <v>0.07258994096674469</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1117762613225778</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.236493429874854</v>
+        <v>-1.232675646496139</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3911837749906539</v>
+        <v>-0.3965338659839549</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09444991852336865</v>
+        <v>0.09798673948893129</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.09627082598659492</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9441138690263267</v>
+        <v>-0.9427224361230968</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4381052849966274</v>
+        <v>-0.4451065220481728</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1367076098729282</v>
+        <v>0.1406143253319965</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.07406684004018066</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7469829272650679</v>
+        <v>-0.7475653143399491</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5459696673411208</v>
+        <v>-0.5550549057092684</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1359457846182187</v>
+        <v>0.1398540740964083</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.04347668679970677</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5263385008602587</v>
+        <v>-0.5291245147049609</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6731661525334295</v>
+        <v>-0.6841669721722</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1486921914625116</v>
+        <v>0.1525453902714557</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.001118453848183676</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2822128572038859</v>
+        <v>-0.2863918779709393</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8085050386402265</v>
+        <v>-0.8194775259348136</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2121723826245684</v>
+        <v>0.2159059559802936</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.06681961026386252</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05931758345561684</v>
+        <v>-0.06457165928251854</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.924859680125016</v>
+        <v>-0.9363177523185243</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2766457798521659</v>
+        <v>0.2805871237319028</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1559951889751334</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2900611448230116</v>
+        <v>0.2846654072751928</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.063402482153221</v>
+        <v>-1.074238029784254</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3102022934991752</v>
+        <v>0.3134353287743268</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2631781556839282</v>
       </c>
       <c r="E16" t="n">
-        <v>0.55512911288829</v>
+        <v>0.5492438553937468</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.204852497498468</v>
+        <v>-1.213993613545421</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3320119024439175</v>
+        <v>0.3340880336649132</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3806617003472068</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8054375036531319</v>
+        <v>0.799229572238722</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.335000268543215</v>
+        <v>-1.342953787163147</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3599475938087622</v>
+        <v>0.3611658846086489</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5046821904439017</v>
       </c>
       <c r="E18" t="n">
-        <v>1.04344650900413</v>
+        <v>1.036490918507103</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.532487725635448</v>
+        <v>-1.539832885864998</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4087091321675362</v>
+        <v>0.4094772534987309</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6349405868368095</v>
       </c>
       <c r="E19" t="n">
-        <v>1.317229820944051</v>
+        <v>1.311552333973519</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.735604662115014</v>
+        <v>-1.742418590891124</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4435201390542222</v>
+        <v>0.4439577163699437</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7712673163274294</v>
       </c>
       <c r="E20" t="n">
-        <v>1.612084526860823</v>
+        <v>1.606572311898028</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.93491089830191</v>
+        <v>-1.940678891371916</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5091929388522508</v>
+        <v>0.5098020842521941</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9086997587283544</v>
       </c>
       <c r="E21" t="n">
-        <v>1.817076907123418</v>
+        <v>1.813296113194054</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.161136796510851</v>
+        <v>-2.166201990043197</v>
       </c>
       <c r="G21" t="n">
-        <v>0.583291463006602</v>
+        <v>0.5838549618520276</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.034493737511206</v>
       </c>
       <c r="E22" t="n">
-        <v>1.953073733222919</v>
+        <v>1.950035876318809</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.329205836225975</v>
+        <v>-2.333987706316486</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6455234570054672</v>
+        <v>0.6461546386731088</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.136184548314948</v>
       </c>
       <c r="E23" t="n">
-        <v>2.15510853155659</v>
+        <v>2.153890240756704</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.48058948624575</v>
+        <v>-2.485051043445077</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7031687592848623</v>
+        <v>0.7038959561189032</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.209037840673298</v>
       </c>
       <c r="E24" t="n">
-        <v>2.265892719371096</v>
+        <v>2.266531771134344</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.722731865809284</v>
+        <v>-2.727753773815794</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7495251964262889</v>
+        <v>0.7499108311110075</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.253611336824188</v>
       </c>
       <c r="E25" t="n">
-        <v>2.415876279382475</v>
+        <v>2.41885904561734</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.883454958285298</v>
+        <v>-2.888748384590232</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7942698379875035</v>
+        <v>0.7956471047186416</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.271792822614793</v>
       </c>
       <c r="E26" t="n">
-        <v>2.568264940611201</v>
+        <v>2.572769783336364</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.054854622461094</v>
+        <v>-3.060315681802446</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8240565758389977</v>
+        <v>0.8251426490326952</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.264703347964977</v>
       </c>
       <c r="E27" t="n">
-        <v>2.62308330454874</v>
+        <v>2.628918193431402</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.180001734757469</v>
+        <v>-3.187407494723188</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8659742790583563</v>
+        <v>0.8672051620112136</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.234430659294329</v>
       </c>
       <c r="E28" t="n">
-        <v>2.63783501175357</v>
+        <v>2.643665178578868</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.270005722132563</v>
+        <v>-3.278445612660978</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8932488823922546</v>
+        <v>0.8952038141409101</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.185329123435589</v>
       </c>
       <c r="E29" t="n">
-        <v>2.648135392883362</v>
+        <v>2.654736829078097</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.366425411446079</v>
+        <v>-3.376875324392394</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8941492213296387</v>
+        <v>0.8963701623097939</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.122961364443711</v>
       </c>
       <c r="E30" t="n">
-        <v>2.647765498389856</v>
+        <v>2.655322364191221</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.406083610216811</v>
+        <v>-3.418405818907913</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9033178827112152</v>
+        <v>0.9051405968536814</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.052103482057578</v>
       </c>
       <c r="E31" t="n">
-        <v>2.638097872946827</v>
+        <v>2.645901859750236</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.490032346032262</v>
+        <v>-3.504488137642287</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8687744590751503</v>
+        <v>0.8709859559405778</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9776813046202177</v>
       </c>
       <c r="E32" t="n">
-        <v>2.600924263359069</v>
+        <v>2.608522053657587</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.539592699095096</v>
+        <v>-3.556470906132803</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8659601128862646</v>
+        <v>0.8684014165434021</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.903600950947352</v>
       </c>
       <c r="E33" t="n">
-        <v>2.532330084071906</v>
+        <v>2.539597330354951</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.5822194979286</v>
+        <v>-3.600858245353483</v>
       </c>
       <c r="G33" t="n">
-        <v>0.881001439609414</v>
+        <v>0.8844501155041838</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8322698244506991</v>
       </c>
       <c r="E34" t="n">
-        <v>2.474330627490219</v>
+        <v>2.481549079180504</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.602275649572214</v>
+        <v>-3.62111351041594</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8771844432402599</v>
+        <v>0.8811698596553932</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.767071656768295</v>
       </c>
       <c r="E35" t="n">
-        <v>2.413343682616302</v>
+        <v>2.419921508524218</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.575593664437485</v>
+        <v>-3.595289365702321</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8301873803164639</v>
+        <v>0.8345505613207095</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7106333120890755</v>
       </c>
       <c r="E36" t="n">
-        <v>2.329300505653573</v>
+        <v>2.33642451619658</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.557197315957283</v>
+        <v>-3.577046484086446</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8227107894902856</v>
+        <v>0.8273887743187913</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6627126834689429</v>
       </c>
       <c r="E37" t="n">
-        <v>2.177102300738524</v>
+        <v>2.183116627801014</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.502757503618417</v>
+        <v>-3.522644448206491</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7769949781312285</v>
+        <v>0.7815879659271839</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6226574460763649</v>
       </c>
       <c r="E38" t="n">
-        <v>2.093773728456866</v>
+        <v>2.100173690204075</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.460462035809946</v>
+        <v>-3.480162459132146</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7672958723057737</v>
+        <v>0.7713080470459691</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5883893860903557</v>
       </c>
       <c r="E39" t="n">
-        <v>2.008929375761395</v>
+        <v>2.014735932299873</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.349924181987924</v>
+        <v>-3.369109114047897</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7128033303263438</v>
+        <v>0.7165967164086785</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5572393633748264</v>
       </c>
       <c r="E40" t="n">
-        <v>1.884345762310446</v>
+        <v>1.890172781097501</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.267116610035416</v>
+        <v>-3.285838780473727</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6790721005568701</v>
+        <v>0.682777341568412</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5277169266478773</v>
       </c>
       <c r="E41" t="n">
-        <v>1.773293991245318</v>
+        <v>1.77799086430328</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.209244649002553</v>
+        <v>-3.227803121452249</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6320860557669232</v>
+        <v>0.6352640003728294</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4980435465000358</v>
       </c>
       <c r="E42" t="n">
-        <v>1.636757276587211</v>
+        <v>1.640161879946585</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.147539951409324</v>
+        <v>-3.165620709055704</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5851456575314942</v>
+        <v>0.5880749071162348</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4667598959645019</v>
       </c>
       <c r="E43" t="n">
-        <v>1.513624908766101</v>
+        <v>1.516499067681596</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.041484117035205</v>
+        <v>-3.058510281870314</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5305035837355407</v>
+        <v>0.5332093226050567</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4332579359641014</v>
       </c>
       <c r="E44" t="n">
-        <v>1.320875249228983</v>
+        <v>1.322612966338899</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.986760194244944</v>
+        <v>-3.003269293798706</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4843250107548212</v>
+        <v>0.4866435409204971</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3970493637952819</v>
       </c>
       <c r="E45" t="n">
-        <v>1.138281161062497</v>
+        <v>1.139296403395736</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.871917398126163</v>
+        <v>-2.887505696493965</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4376521957700132</v>
+        <v>0.4396118495760326</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.358644613243208</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9626757177945854</v>
+        <v>0.9619705572282428</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.711309996055566</v>
+        <v>-2.72560602472478</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3809969515179162</v>
+        <v>0.3829471612092078</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3191445655593234</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8874202895860782</v>
+        <v>0.8861972767288276</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.666829002697169</v>
+        <v>-2.68097628655942</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3449881160799204</v>
+        <v>0.3467714797443541</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2792092076342558</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7408696652782564</v>
+        <v>0.7384078993725421</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.58967137238057</v>
+        <v>-2.603370847802811</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3526583112580187</v>
+        <v>0.3541677955953461</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2396309734469624</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6040417570827089</v>
+        <v>0.6005867851114539</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.53192297184873</v>
+        <v>-2.545470554425765</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3085023528481705</v>
+        <v>0.3098150847953353</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.200961052018678</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4701478205292659</v>
+        <v>0.4656272376128903</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.472330607916286</v>
+        <v>-2.485760926068784</v>
       </c>
       <c r="G50" t="n">
-        <v>0.261502141886132</v>
+        <v>0.2622560970452349</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1631942491154849</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3559118087817472</v>
+        <v>0.3507568961594875</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.44369133000422</v>
+        <v>-2.456936700909965</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2447372642251583</v>
+        <v>0.2455022375181105</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1262920171177617</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1986940568888706</v>
+        <v>0.1929237027901823</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.447984467157567</v>
+        <v>-2.461483255141842</v>
       </c>
       <c r="G52" t="n">
-        <v>0.229983983001207</v>
+        <v>0.2308103430398898</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.09066518936155099</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1396825060121865</v>
+        <v>0.132649788578215</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.357990710906761</v>
+        <v>-2.370456155337902</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1928276876237829</v>
+        <v>0.1934840535973653</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.05651271452422282</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03657166141402106</v>
+        <v>0.0293390435516444</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.315045960210754</v>
+        <v>-2.326958136920757</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1697934918026687</v>
+        <v>0.1704262474894316</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.02377712256345862</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0518945092795628</v>
+        <v>-0.05942776479410789</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.272986595270478</v>
+        <v>-2.284136946725772</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1525217799846362</v>
+        <v>0.1529388950517809</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.008079918428875083</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.09198477629909133</v>
+        <v>-0.09980922535107704</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.245911105355424</v>
+        <v>-2.256253985001491</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1239124084358749</v>
+        <v>0.1243279494838983</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.03996568430803382</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1635585737828762</v>
+        <v>-0.1718945790492846</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.21987604207955</v>
+        <v>-2.229767965247365</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1235299217893989</v>
+        <v>0.1242461004895907</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.07299455307169446</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2403423745581663</v>
+        <v>-0.2485681984860837</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.202465029569283</v>
+        <v>-2.211978401138424</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1098013270134143</v>
+        <v>0.1105725963828516</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1084448426414749</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3139482307275504</v>
+        <v>-0.3216955528425924</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.196050114640422</v>
+        <v>-2.205262848557395</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08933593039826271</v>
+        <v>0.09008044144263794</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.147367103538163</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3551859576865071</v>
+        <v>-0.3631504944402886</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.207624664248907</v>
+        <v>-2.217027067469996</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06198734816566326</v>
+        <v>0.06247686811238778</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.189911343846895</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3815444818918085</v>
+        <v>-0.3892225471655132</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.154115097210729</v>
+        <v>-2.162328328985676</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02320509103593562</v>
+        <v>0.02328379199200065</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2361455406930245</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4238934663504034</v>
+        <v>-0.4318343928173654</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.135332327036248</v>
+        <v>-2.143002522214346</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0588534760951536</v>
+        <v>0.05906596867652918</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2857003692295636</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4342426420729555</v>
+        <v>-0.4420718131823051</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.159720966311241</v>
+        <v>-2.166858356016779</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02733216917198602</v>
+        <v>0.02738725984123154</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3375511595540128</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4232339523385785</v>
+        <v>-0.4317289335362383</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.127756573005428</v>
+        <v>-2.13370085621702</v>
       </c>
       <c r="G64" t="n">
-        <v>0.009755097644421238</v>
+        <v>0.00962130601911068</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.391159640006658</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4763917261031453</v>
+        <v>-0.4845907917060006</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.13768312459391</v>
+        <v>-2.143571530126696</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009797596160696356</v>
+        <v>0.00980546625630286</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4458568314036486</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4959489136853064</v>
+        <v>-0.5041511273264042</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.12566627561234</v>
+        <v>-2.131224924139214</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.0226035874512783</v>
+        <v>-0.02239266888902401</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5006347173314298</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5166236548435909</v>
+        <v>-0.5241065417462544</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.158083986425089</v>
+        <v>-2.164047944875697</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.02223684099601524</v>
+        <v>-0.02187639061723739</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.555058756605081</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.463062932183971</v>
+        <v>-0.4707661817636166</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.189865793512832</v>
+        <v>-2.195578695913592</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04445412089317445</v>
+        <v>-0.04423375821619235</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6081253120459196</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.425681552072201</v>
+        <v>-0.4328921336668795</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.216059045710396</v>
+        <v>-2.221989162749896</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07401734802944397</v>
+        <v>-0.07386781621292041</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6580123118467524</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.34607710903154</v>
+        <v>-0.3528123368515857</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.22520016175735</v>
+        <v>-2.231106668510031</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.08214243473359811</v>
+        <v>-0.08199762497443845</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7030694993780058</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.292368428574518</v>
+        <v>-0.2991760612741435</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.250931439342813</v>
+        <v>-2.256937109300136</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08793954715734856</v>
+        <v>-0.0880654686870526</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7413089676800191</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2327792126803165</v>
+        <v>-0.239796189923075</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.303812185742031</v>
+        <v>-2.310024052204244</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07313274928327299</v>
+        <v>-0.07348847760468694</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7708379663556532</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1050585791206148</v>
+        <v>-0.1120755563633733</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.313232690183015</v>
+        <v>-2.319346180450147</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08869192829733027</v>
+        <v>-0.08908071102029155</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.790914795815824</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.03121504606391436</v>
+        <v>-0.03810610177696878</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.357239903785901</v>
+        <v>-2.363313256565439</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07705520493355429</v>
+        <v>-0.07755889105237052</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8011839557779541</v>
       </c>
       <c r="E75" t="n">
-        <v>0.06378015594482475</v>
+        <v>0.05647513320286825</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.388171740548141</v>
+        <v>-2.394349765599246</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.08249658903589077</v>
+        <v>-0.08317341725805007</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8014952205237568</v>
       </c>
       <c r="E76" t="n">
-        <v>0.200475846534183</v>
+        <v>0.1931535095818922</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.411670272010039</v>
+        <v>-2.417591731944372</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.09376656594440369</v>
+        <v>-0.09480069650709824</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7922889578097134</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3442168467104831</v>
+        <v>0.336793772534429</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.348690618928556</v>
+        <v>-2.353622020835591</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1029305052686163</v>
+        <v>-0.1046021135754376</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.774210499626906</v>
       </c>
       <c r="E78" t="n">
-        <v>0.527437394487247</v>
+        <v>0.519809697825424</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.342380376271262</v>
+        <v>-2.346789990839585</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.07782175224562773</v>
+        <v>-0.07917383467082502</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7480356209657328</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6477066215267113</v>
+        <v>0.6400458704633408</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.274115953990012</v>
+        <v>-2.278113962558115</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.06765358872202529</v>
+        <v>-0.06972027582829309</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7145047265570316</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8032763753995861</v>
+        <v>0.79579034045868</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.252358287676272</v>
+        <v>-2.255779418236419</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.04700875392704547</v>
+        <v>-0.04901090624933994</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6737843081680115</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9252266548605995</v>
+        <v>0.9174053538468564</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.212371905918749</v>
+        <v>-2.215476658635515</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.02007099068510549</v>
+        <v>-0.02228720960789686</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6267705644133501</v>
       </c>
       <c r="E82" t="n">
-        <v>1.077749107714636</v>
+        <v>1.07015446545436</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.15647612589268</v>
+        <v>-2.159517130835033</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02496304211410803</v>
+        <v>-0.02745156634488442</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5751081159755344</v>
       </c>
       <c r="E83" t="n">
-        <v>1.146566797717024</v>
+        <v>1.138976877514112</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.098453846033733</v>
+        <v>-2.100873900432733</v>
       </c>
       <c r="G83" t="n">
-        <v>0.001115306687601763</v>
+        <v>-0.001722649788103377</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5203609282283919</v>
       </c>
       <c r="E84" t="n">
-        <v>1.28242511013385</v>
+        <v>1.274605383139228</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.016373470915267</v>
+        <v>-2.018464555317914</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03005050019447231</v>
+        <v>0.02723615400558668</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4635160152353874</v>
       </c>
       <c r="E85" t="n">
-        <v>1.292305228158254</v>
+        <v>1.284431984513508</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.858799990700976</v>
+        <v>-1.85987032370346</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04566791791601773</v>
+        <v>0.04282209134470609</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4049649830705344</v>
       </c>
       <c r="E86" t="n">
-        <v>1.335749729925275</v>
+        <v>1.327556960398904</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.763037454370603</v>
+        <v>-1.763541140489419</v>
       </c>
       <c r="G86" t="n">
-        <v>0.06556194559013713</v>
+        <v>0.06286879887359165</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3445772637565755</v>
       </c>
       <c r="E87" t="n">
-        <v>1.343185396254299</v>
+        <v>1.33404978927427</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.571655617449895</v>
+        <v>-1.571588721637239</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0595586366614963</v>
+        <v>0.0568056772183414</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2833194536916823</v>
       </c>
       <c r="E88" t="n">
-        <v>1.334122194153849</v>
+        <v>1.32404217570104</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.424185765975233</v>
+        <v>-1.423924478801097</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08781070586972235</v>
+        <v>0.08487516020849656</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.223798769302967</v>
       </c>
       <c r="E89" t="n">
-        <v>1.345052182932162</v>
+        <v>1.334736061611157</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.231521103470665</v>
+        <v>-1.231617905646625</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08194118856639208</v>
+        <v>0.07918035902763068</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.169723647232063</v>
       </c>
       <c r="E90" t="n">
-        <v>1.285485003305658</v>
+        <v>1.275283785380509</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.064934002758246</v>
+        <v>-1.064705769985657</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0913491008544063</v>
+        <v>0.08859771543037269</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.124882876770542</v>
       </c>
       <c r="E91" t="n">
-        <v>1.224811288236881</v>
+        <v>1.214910707963899</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8748373524500801</v>
+        <v>-0.8747531424270905</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05897624958661504</v>
+        <v>0.05619180976103413</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.09216341191232887</v>
       </c>
       <c r="E92" t="n">
-        <v>1.210160318255814</v>
+        <v>1.200340012958019</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7108245600105484</v>
+        <v>-0.71126213732627</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0410072472978464</v>
+        <v>0.03805596144540761</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.07286244065273774</v>
       </c>
       <c r="E93" t="n">
-        <v>1.191267366742842</v>
+        <v>1.182024726462564</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5348838506698002</v>
+        <v>-0.5351388417674509</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02422977748390236</v>
+        <v>0.02176643755906679</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.06726452367363241</v>
       </c>
       <c r="E94" t="n">
-        <v>1.159080249731364</v>
+        <v>1.149958808923427</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4056678989448628</v>
+        <v>-0.407134884765915</v>
       </c>
       <c r="G94" t="n">
-        <v>0.003392912356123858</v>
+        <v>0.0005439377465696132</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.07417088573976234</v>
       </c>
       <c r="E95" t="n">
-        <v>1.129395823122754</v>
+        <v>1.121328975126088</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2700755957595363</v>
+        <v>-0.2715835060777424</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.001322848931293003</v>
+        <v>-0.00385859373570841</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08981794666408521</v>
       </c>
       <c r="E96" t="n">
-        <v>1.09739444036759</v>
+        <v>1.089118247827791</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1628801715415956</v>
+        <v>-0.1648303812328872</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03625820332856177</v>
+        <v>-0.03880496626682628</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1089317047403957</v>
       </c>
       <c r="E97" t="n">
-        <v>1.044878866404514</v>
+        <v>1.036939513956673</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.08081238857609904</v>
+        <v>-0.08269334142605336</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06674223165079218</v>
+        <v>-0.06926538430223719</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1250989115760038</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9843578311905024</v>
+        <v>0.9773943705978682</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06879475258496828</v>
+        <v>-0.07017516735434899</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.09131581817253853</v>
+        <v>-0.09366268068239786</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.133103570966001</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9328386113312096</v>
+        <v>0.9266527161844978</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.00701607609303759</v>
+        <v>-0.008542874640699258</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1286783100548529</v>
+        <v>-0.1312124808401471</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1325017491726644</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9137363152751045</v>
+        <v>0.9089670373375633</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04297004914210835</v>
+        <v>0.0421594292946385</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1296636460247872</v>
+        <v>-0.1319632879610075</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1273879574609196</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8533018511127646</v>
+        <v>0.8494817067053678</v>
       </c>
       <c r="F101" t="n">
-        <v>0.06758613418012981</v>
+        <v>0.06652209725413054</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1596077857884115</v>
+        <v>-0.1615768837091586</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1208877521939788</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7923101841814841</v>
+        <v>0.7896847202871546</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1123717002384983</v>
+        <v>0.1117609808194336</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1508908678946483</v>
+        <v>-0.1526821016546884</v>
       </c>
     </row>
   </sheetData>
